--- a/data/trans_orig/PCS12_SP_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61477BD5-C924-44EC-B991-16FF79A1FCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40EFCC5-010E-434B-9ECC-F0FDA52CE8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43D892F6-5DA0-41F2-8F9C-D6E752A41EE6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{66505B38-0E29-4ADC-8AF3-9DE374F78A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="618">
   <si>
     <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -569,7 +569,52 @@
     <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>50,55%</t>
@@ -680,630 +725,642 @@
     <t>56,47%</t>
   </si>
   <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
   </si>
   <si>
     <t>52,78%</t>
   </si>
   <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
     <t>47,03%</t>
   </si>
   <si>
@@ -1418,448 +1475,424 @@
     <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5155E1-8D35-496E-8A2A-8AE34FCE455A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D94D01F-DD4C-42D3-AFE4-8F3D606A404A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3683,7 +3716,7 @@
         <v>1825</v>
       </c>
       <c r="D29" s="7">
-        <v>1881602</v>
+        <v>1881601</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>166</v>
@@ -3698,7 +3731,7 @@
         <v>1428</v>
       </c>
       <c r="I29" s="7">
-        <v>1451251</v>
+        <v>1451250</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>169</v>
@@ -3713,7 +3746,7 @@
         <v>3253</v>
       </c>
       <c r="N29" s="7">
-        <v>3332851</v>
+        <v>3332852</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>172</v>
@@ -3734,7 +3767,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3749,7 +3782,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3764,7 +3797,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3802,7 +3835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C599A84E-C67B-4736-9EAD-BAA7029FDD6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDFA4E4-9F06-4780-B01E-7CA71CFF3383}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3920,43 +3953,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="D4" s="7">
+        <v>149415</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="I4" s="7">
+        <v>159778</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="N4" s="7">
+        <v>309193</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,43 +4004,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="D5" s="7">
+        <v>145323</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="I5" s="7">
+        <v>127467</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="N5" s="7">
+        <v>272790</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,43 +4055,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4114,13 @@
         <v>255536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>302</v>
@@ -4078,13 +4129,13 @@
         <v>334168</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>535</v>
@@ -4093,13 +4144,13 @@
         <v>589703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4165,13 @@
         <v>249991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>178</v>
@@ -4129,13 +4180,13 @@
         <v>189597</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>417</v>
@@ -4144,13 +4195,13 @@
         <v>439589</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4269,13 @@
         <v>137108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
@@ -4233,13 +4284,13 @@
         <v>179219</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>298</v>
@@ -4248,13 +4299,13 @@
         <v>316327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4320,13 @@
         <v>186938</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7">
         <v>152</v>
@@ -4284,13 +4335,13 @@
         <v>161801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="M11" s="7">
         <v>338</v>
@@ -4299,13 +4350,13 @@
         <v>348739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,49 +4418,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="D13" s="7">
-        <v>289584</v>
+        <v>140169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>334</v>
+        <v>192</v>
       </c>
       <c r="I13" s="7">
-        <v>356893</v>
+        <v>197115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
-        <v>602</v>
+        <v>318</v>
       </c>
       <c r="N13" s="7">
-        <v>646477</v>
+        <v>337284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,49 +4469,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>358</v>
+        <v>218</v>
       </c>
       <c r="D14" s="7">
-        <v>379136</v>
+        <v>233813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="I14" s="7">
-        <v>319303</v>
+        <v>191836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
-        <v>651</v>
+        <v>397</v>
       </c>
       <c r="N14" s="7">
-        <v>698439</v>
+        <v>425649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,10 +4520,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4484,10 +4535,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4499,10 +4550,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4528,10 +4579,10 @@
         <v>94595</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>129</v>
@@ -4543,13 +4594,13 @@
         <v>127974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -4558,13 +4609,13 @@
         <v>222569</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4630,13 @@
         <v>118023</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>138</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -4594,13 +4645,13 @@
         <v>91617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -4609,13 +4660,13 @@
         <v>209640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4734,13 @@
         <v>129692</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -4698,13 +4749,13 @@
         <v>156021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -4713,13 +4764,13 @@
         <v>285714</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4785,13 @@
         <v>144289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -4749,13 +4800,13 @@
         <v>124010</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>258</v>
@@ -4764,13 +4815,13 @@
         <v>268298</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4889,13 @@
         <v>276810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>335</v>
@@ -4853,13 +4904,13 @@
         <v>367879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="M22" s="7">
         <v>586</v>
@@ -4868,10 +4919,10 @@
         <v>644688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>26</v>
@@ -4889,13 +4940,13 @@
         <v>385978</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="H23" s="7">
         <v>301</v>
@@ -4904,13 +4955,13 @@
         <v>325974</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
         <v>668</v>
@@ -4919,13 +4970,13 @@
         <v>711953</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +5044,13 @@
         <v>324107</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="H25" s="7">
         <v>372</v>
@@ -5008,13 +5059,13 @@
         <v>409600</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>663</v>
@@ -5023,13 +5074,13 @@
         <v>733707</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5095,13 @@
         <v>454991</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>385</v>
@@ -5059,10 +5110,10 @@
         <v>414253</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>38</v>
@@ -5074,13 +5125,13 @@
         <v>869244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5199,13 @@
         <v>1507432</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="H28" s="7">
         <v>1780</v>
@@ -5163,13 +5214,13 @@
         <v>1931754</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="M28" s="7">
         <v>3167</v>
@@ -5178,13 +5229,13 @@
         <v>3439186</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5250,13 @@
         <v>1919347</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="H29" s="7">
         <v>1518</v>
@@ -5214,13 +5265,13 @@
         <v>1626555</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="M29" s="7">
         <v>3340</v>
@@ -5229,13 +5280,13 @@
         <v>3545902</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9168B6F-462A-4524-B6E6-A85A58871161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E1E2A0-2C63-4758-AE6E-A9575DD6A02F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5383,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5439,13 +5490,13 @@
         <v>134030</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>147</v>
@@ -5454,13 +5505,13 @@
         <v>156716</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>269</v>
@@ -5469,13 +5520,13 @@
         <v>290746</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5541,13 @@
         <v>159731</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>130</v>
@@ -5505,13 +5556,13 @@
         <v>131987</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>274</v>
@@ -5520,13 +5571,13 @@
         <v>291718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5645,13 @@
         <v>227189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>247</v>
@@ -5609,13 +5660,13 @@
         <v>278291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>460</v>
@@ -5624,13 +5675,13 @@
         <v>505480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5696,13 @@
         <v>275386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>237</v>
@@ -5660,13 +5711,13 @@
         <v>244793</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -5675,13 +5726,13 @@
         <v>520179</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5800,13 @@
         <v>96109</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5764,13 +5815,13 @@
         <v>113264</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>207</v>
@@ -5779,13 +5830,13 @@
         <v>209373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5851,13 @@
         <v>222456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -5815,13 +5866,13 @@
         <v>223045</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>460</v>
@@ -5830,13 +5881,13 @@
         <v>445501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5955,13 @@
         <v>206637</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -5919,13 +5970,13 @@
         <v>247242</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
@@ -5934,10 +5985,10 @@
         <v>453879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>104</v>
@@ -5955,13 +6006,13 @@
         <v>163327</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -5970,13 +6021,13 @@
         <v>140041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>289</v>
@@ -5985,13 +6036,13 @@
         <v>303368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6110,13 @@
         <v>65605</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -6074,13 +6125,13 @@
         <v>85760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -6089,13 +6140,13 @@
         <v>151366</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6161,13 @@
         <v>145616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -6125,13 +6176,13 @@
         <v>132827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>286</v>
@@ -6140,13 +6191,13 @@
         <v>278442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6265,13 @@
         <v>92005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -6229,13 +6280,13 @@
         <v>124033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -6244,13 +6295,13 @@
         <v>216038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6316,13 @@
         <v>171118</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>150</v>
@@ -6280,13 +6331,13 @@
         <v>149082</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>316</v>
@@ -6295,13 +6346,13 @@
         <v>320200</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6420,13 @@
         <v>252194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
@@ -6384,13 +6435,13 @@
         <v>339764</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>528</v>
@@ -6399,13 +6450,13 @@
         <v>591958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6471,13 @@
         <v>404364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="H23" s="7">
         <v>344</v>
@@ -6435,13 +6486,13 @@
         <v>351530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="M23" s="7">
         <v>698</v>
@@ -6450,13 +6501,13 @@
         <v>755894</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6575,13 @@
         <v>248243</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>304</v>
@@ -6539,10 +6590,10 @@
         <v>350192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>139</v>
@@ -6554,13 +6605,13 @@
         <v>598435</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6626,13 @@
         <v>530340</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>451</v>
@@ -6590,13 +6641,13 @@
         <v>475975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
         <v>958</v>
@@ -6605,13 +6656,13 @@
         <v>1006315</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6730,13 @@
         <v>1322013</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="H28" s="7">
         <v>1521</v>
@@ -6694,13 +6745,13 @@
         <v>1695262</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="M28" s="7">
         <v>2789</v>
@@ -6709,13 +6760,13 @@
         <v>3017275</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6781,13 @@
         <v>2072337</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="H29" s="7">
         <v>1817</v>
@@ -6745,13 +6796,13 @@
         <v>1849280</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="M29" s="7">
         <v>3780</v>
@@ -6760,13 +6811,13 @@
         <v>3921617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CB247E-2534-4968-9CB9-4FC3DD43FD26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39611AB7-A0C8-45DE-886A-5AD46B44A675}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6967,46 +7018,46 @@
         <v>228</v>
       </c>
       <c r="D4" s="7">
-        <v>164308</v>
+        <v>189437</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>435</v>
       </c>
       <c r="I4" s="7">
-        <v>217983</v>
+        <v>231287</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="M4" s="7">
         <v>663</v>
       </c>
       <c r="N4" s="7">
-        <v>382290</v>
+        <v>420723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,46 +7069,46 @@
         <v>103</v>
       </c>
       <c r="D5" s="7">
-        <v>95990</v>
+        <v>122006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
       </c>
       <c r="I5" s="7">
-        <v>53420</v>
+        <v>58348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
         <v>206</v>
       </c>
       <c r="N5" s="7">
-        <v>149410</v>
+        <v>180354</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,7 +7120,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7084,7 +7135,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7099,7 +7150,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7122,46 +7173,46 @@
         <v>203</v>
       </c>
       <c r="D7" s="7">
-        <v>239267</v>
+        <v>232177</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="H7" s="7">
         <v>432</v>
       </c>
       <c r="I7" s="7">
-        <v>310017</v>
+        <v>287324</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>480</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>481</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>635</v>
       </c>
       <c r="N7" s="7">
-        <v>549283</v>
+        <v>519501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>483</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,46 +7224,46 @@
         <v>178</v>
       </c>
       <c r="D8" s="7">
-        <v>279103</v>
+        <v>285342</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
       </c>
       <c r="I8" s="7">
-        <v>243010</v>
+        <v>226253</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>489</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>491</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>461</v>
       </c>
       <c r="N8" s="7">
-        <v>522114</v>
+        <v>511595</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>492</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,7 +7275,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518370</v>
+        <v>517519</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7239,7 +7290,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553027</v>
+        <v>513577</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7254,7 +7305,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071397</v>
+        <v>1031096</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7277,46 +7328,46 @@
         <v>215</v>
       </c>
       <c r="D10" s="7">
-        <v>171044</v>
+        <v>164971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="H10" s="7">
         <v>314</v>
       </c>
       <c r="I10" s="7">
-        <v>192240</v>
+        <v>178911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>529</v>
       </c>
       <c r="N10" s="7">
-        <v>363284</v>
+        <v>343882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,46 +7379,46 @@
         <v>143</v>
       </c>
       <c r="D11" s="7">
-        <v>149187</v>
+        <v>149106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>215</v>
       </c>
       <c r="I11" s="7">
-        <v>175634</v>
+        <v>165194</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>520</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="M11" s="7">
         <v>358</v>
       </c>
       <c r="N11" s="7">
-        <v>324821</v>
+        <v>314300</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,7 +7430,7 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320231</v>
+        <v>314077</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7394,7 +7445,7 @@
         <v>529</v>
       </c>
       <c r="I12" s="7">
-        <v>367874</v>
+        <v>344105</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7409,7 +7460,7 @@
         <v>887</v>
       </c>
       <c r="N12" s="7">
-        <v>688105</v>
+        <v>658182</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7432,46 +7483,46 @@
         <v>159</v>
       </c>
       <c r="D13" s="7">
-        <v>157321</v>
+        <v>150201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>369</v>
       </c>
       <c r="I13" s="7">
-        <v>214803</v>
+        <v>198363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>528</v>
       </c>
       <c r="N13" s="7">
-        <v>372124</v>
+        <v>348564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>517</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,46 +7534,46 @@
         <v>127</v>
       </c>
       <c r="D14" s="7">
-        <v>158262</v>
+        <v>155983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>219</v>
       </c>
       <c r="I14" s="7">
-        <v>208164</v>
+        <v>272116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>346</v>
       </c>
       <c r="N14" s="7">
-        <v>366426</v>
+        <v>428099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,7 +7585,7 @@
         <v>286</v>
       </c>
       <c r="D15" s="7">
-        <v>315583</v>
+        <v>306184</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7549,7 +7600,7 @@
         <v>588</v>
       </c>
       <c r="I15" s="7">
-        <v>422967</v>
+        <v>470479</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7564,7 +7615,7 @@
         <v>874</v>
       </c>
       <c r="N15" s="7">
-        <v>738550</v>
+        <v>776663</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7587,46 +7638,46 @@
         <v>124</v>
       </c>
       <c r="D16" s="7">
-        <v>81322</v>
+        <v>74067</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>540</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="H16" s="7">
         <v>268</v>
       </c>
       <c r="I16" s="7">
-        <v>121366</v>
+        <v>109185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="M16" s="7">
         <v>392</v>
       </c>
       <c r="N16" s="7">
-        <v>202689</v>
+        <v>183251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,46 +7689,46 @@
         <v>154</v>
       </c>
       <c r="D17" s="7">
-        <v>114848</v>
+        <v>104172</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>549</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
       </c>
       <c r="I17" s="7">
-        <v>108320</v>
+        <v>97462</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>373</v>
       </c>
       <c r="N17" s="7">
-        <v>223167</v>
+        <v>201635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,7 +7740,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196170</v>
+        <v>178239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7704,7 +7755,7 @@
         <v>487</v>
       </c>
       <c r="I18" s="7">
-        <v>229686</v>
+        <v>206647</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7719,7 +7770,7 @@
         <v>765</v>
       </c>
       <c r="N18" s="7">
-        <v>425856</v>
+        <v>384886</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7742,46 +7793,46 @@
         <v>228</v>
       </c>
       <c r="D19" s="7">
-        <v>153510</v>
+        <v>147654</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="H19" s="7">
         <v>331</v>
       </c>
       <c r="I19" s="7">
-        <v>170939</v>
+        <v>159462</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>548</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="M19" s="7">
         <v>559</v>
       </c>
       <c r="N19" s="7">
-        <v>324449</v>
+        <v>307116</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>163</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,46 +7844,46 @@
         <v>142</v>
       </c>
       <c r="D20" s="7">
-        <v>123217</v>
+        <v>121510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
       </c>
       <c r="I20" s="7">
-        <v>104683</v>
+        <v>97594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>555</v>
+        <v>24</v>
       </c>
       <c r="M20" s="7">
         <v>271</v>
       </c>
       <c r="N20" s="7">
-        <v>227900</v>
+        <v>219104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>571</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,7 +7895,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276727</v>
+        <v>269164</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7859,7 +7910,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7874,7 +7925,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552349</v>
+        <v>526220</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7897,46 +7948,46 @@
         <v>309</v>
       </c>
       <c r="D22" s="7">
-        <v>305004</v>
+        <v>297941</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="H22" s="7">
         <v>540</v>
       </c>
       <c r="I22" s="7">
-        <v>469111</v>
+        <v>536702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>577</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="M22" s="7">
         <v>849</v>
       </c>
       <c r="N22" s="7">
-        <v>774115</v>
+        <v>834644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,46 +7999,46 @@
         <v>285</v>
       </c>
       <c r="D23" s="7">
-        <v>318143</v>
+        <v>321960</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="H23" s="7">
         <v>416</v>
       </c>
       <c r="I23" s="7">
-        <v>332495</v>
+        <v>310162</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>586</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="M23" s="7">
         <v>701</v>
       </c>
       <c r="N23" s="7">
-        <v>650638</v>
+        <v>632121</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,7 +8050,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>623147</v>
+        <v>619901</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8014,7 +8065,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>801606</v>
+        <v>846864</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8029,7 +8080,7 @@
         <v>1550</v>
       </c>
       <c r="N24" s="7">
-        <v>1424753</v>
+        <v>1466765</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8052,46 +8103,46 @@
         <v>270</v>
       </c>
       <c r="D25" s="7">
-        <v>301895</v>
+        <v>458464</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>482</v>
       </c>
       <c r="I25" s="7">
-        <v>351047</v>
+        <v>292559</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>752</v>
       </c>
       <c r="N25" s="7">
-        <v>652942</v>
+        <v>751023</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,46 +8154,46 @@
         <v>490</v>
       </c>
       <c r="D26" s="7">
-        <v>555742</v>
+        <v>468720</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>564</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="H26" s="7">
         <v>576</v>
       </c>
       <c r="I26" s="7">
-        <v>514339</v>
+        <v>422682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="M26" s="7">
         <v>1066</v>
       </c>
       <c r="N26" s="7">
-        <v>1070081</v>
+        <v>891402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,7 +8205,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>857637</v>
+        <v>927184</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8169,7 +8220,7 @@
         <v>1058</v>
       </c>
       <c r="I27" s="7">
-        <v>865386</v>
+        <v>715241</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8184,7 +8235,7 @@
         <v>1818</v>
       </c>
       <c r="N27" s="7">
-        <v>1723023</v>
+        <v>1642425</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8207,46 +8258,46 @@
         <v>1736</v>
       </c>
       <c r="D28" s="7">
-        <v>1573670</v>
+        <v>1714911</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>343</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="H28" s="7">
         <v>3171</v>
       </c>
       <c r="I28" s="7">
-        <v>2047507</v>
+        <v>1993792</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>593</v>
+        <v>378</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="M28" s="7">
         <v>4907</v>
       </c>
       <c r="N28" s="7">
-        <v>3621177</v>
+        <v>3708703</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>596</v>
+        <v>387</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>597</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,46 +8309,46 @@
         <v>1622</v>
       </c>
       <c r="D29" s="7">
-        <v>1794492</v>
+        <v>1728800</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>598</v>
+        <v>351</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7">
         <v>2160</v>
       </c>
       <c r="I29" s="7">
-        <v>1740065</v>
+        <v>1649811</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>603</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>3782</v>
       </c>
       <c r="N29" s="7">
-        <v>3534557</v>
+        <v>3378611</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>605</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,7 +8360,7 @@
         <v>3358</v>
       </c>
       <c r="D30" s="7">
-        <v>3368162</v>
+        <v>3443711</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8324,7 +8375,7 @@
         <v>5331</v>
       </c>
       <c r="I30" s="7">
-        <v>3787572</v>
+        <v>3643603</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8339,7 +8390,7 @@
         <v>8689</v>
       </c>
       <c r="N30" s="7">
-        <v>7155734</v>
+        <v>7087314</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
